--- a/experiments/dbscan-ajk/instructor-large/0.3/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-large/0.3/prediction.xlsx
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -5208,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5218,7 +5218,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5238,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5248,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5258,7 +5258,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5268,7 +5268,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5278,7 +5278,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5288,7 +5288,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5298,7 +5298,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5308,7 +5308,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -5318,7 +5318,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5348,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5358,7 +5358,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5368,7 +5368,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -5378,7 +5378,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -5388,7 +5388,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5398,7 +5398,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5418,7 +5418,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5428,7 +5428,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -5438,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5448,7 +5448,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -5458,7 +5458,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5728,7 +5728,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -5738,7 +5738,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -5748,7 +5748,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -5758,7 +5758,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
